--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC486F2A-4A94-2D4B-87EB-AA632DB331E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE5CBB9-0C84-BA4B-B287-D099D8AE695B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
@@ -747,13 +747,13 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
@@ -768,7 +768,7 @@
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">

--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE5CBB9-0C84-BA4B-B287-D099D8AE695B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C685BE-E748-5449-9E0F-C99CDCD8BAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47AE9FD-B171-A142-A593-808404ED4673}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C685BE-E748-5449-9E0F-C99CDCD8BAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE23DBF4-AC82-2448-9513-6F34D83CB724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>08-15 Feb</t>
   </si>
@@ -164,12 +164,6 @@
     <t>(Venue sel. process)</t>
   </si>
   <si>
-    <t>D.C. guidelines</t>
-  </si>
-  <si>
-    <t>Initial paper sel.</t>
-  </si>
-  <si>
     <t>B.S. process</t>
   </si>
   <si>
@@ -183,6 +177,21 @@
   </si>
   <si>
     <t>Reading G. &amp; C. (CH 11)</t>
+  </si>
+  <si>
+    <t>Snowballing methods</t>
+  </si>
+  <si>
+    <t>D.C. process / Data items</t>
+  </si>
+  <si>
+    <t>Analysis and Synth methods</t>
+  </si>
+  <si>
+    <t>Study selection</t>
+  </si>
+  <si>
+    <t>Reading test run</t>
   </si>
 </sst>
 </file>
@@ -365,17 +374,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -383,6 +381,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -390,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -404,26 +411,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,8 +438,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFD966"/>
       <color rgb="FFF4B084"/>
-      <color rgb="FFFFD966"/>
     </mruColors>
   </colors>
   <extLst>
@@ -746,17 +752,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47AE9FD-B171-A142-A593-808404ED4673}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
     <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
@@ -765,10 +772,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -850,44 +857,50 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>45</v>
+      <c r="D3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>43</v>
+      <c r="D4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -897,40 +910,43 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="24"/>
+      <c r="D6" s="20"/>
       <c r="Y6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="26"/>
+      <c r="B7" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="22"/>
       <c r="Y7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="12" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="Y8" s="11" t="s">
+      <c r="K8" s="12"/>
+      <c r="Y8" s="9" t="s">
         <v>30</v>
       </c>
     </row>

--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE23DBF4-AC82-2448-9513-6F34D83CB724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561D2F59-B5C3-2D4B-971A-351120979097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>08-15 Feb</t>
   </si>
@@ -182,16 +182,28 @@
     <t>Snowballing methods</t>
   </si>
   <si>
-    <t>D.C. process / Data items</t>
-  </si>
-  <si>
     <t>Analysis and Synth methods</t>
   </si>
   <si>
     <t>Study selection</t>
   </si>
   <si>
-    <t>Reading test run</t>
+    <t>K-cores</t>
+  </si>
+  <si>
+    <t>Assessing data items</t>
+  </si>
+  <si>
+    <t>Main path analysis</t>
+  </si>
+  <si>
+    <t>Data items</t>
+  </si>
+  <si>
+    <t>D.C. process</t>
+  </si>
+  <si>
+    <t>Paper graphs</t>
   </si>
 </sst>
 </file>
@@ -385,19 +397,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -422,14 +436,14 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,8 +452,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF4B084"/>
       <color rgb="FFFFD966"/>
-      <color rgb="FFF4B084"/>
     </mruColors>
   </colors>
   <extLst>
@@ -753,17 +767,20 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="18" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
     <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
@@ -778,7 +795,7 @@
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -867,13 +884,22 @@
         <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -883,26 +909,23 @@
       <c r="B4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
@@ -910,20 +933,27 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="20"/>
+      <c r="D6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="21"/>
       <c r="Y6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="23"/>
+      <c r="F7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="G7" s="21"/>
       <c r="Y7" s="5" t="s">
         <v>27</v>
       </c>

--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561D2F59-B5C3-2D4B-971A-351120979097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C7AFEA-E944-2F41-9BFD-1315309CC932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -439,7 +439,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -767,7 +766,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,7 +774,7 @@
     <col min="1" max="1" width="19.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="4" max="4" width="23" style="18" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
@@ -798,7 +797,7 @@
       <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -889,16 +888,16 @@
       <c r="E3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -915,7 +914,7 @@
       <c r="D4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>53</v>
       </c>
       <c r="F4" s="14" t="s">
@@ -937,7 +936,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="21"/>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G6" s="21"/>
@@ -949,7 +948,6 @@
       <c r="B7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="23"/>
       <c r="F7" s="20" t="s">
         <v>45</v>
       </c>

--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C7AFEA-E944-2F41-9BFD-1315309CC932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8EC175-4B13-7640-A358-B25330984B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>08-15 Feb</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Paper graphs</t>
+  </si>
+  <si>
+    <t>08-15 Mar</t>
   </si>
 </sst>
 </file>
@@ -766,7 +769,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,10 +783,13 @@
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" customWidth="1"/>
+    <col min="19" max="19" width="20.1640625" customWidth="1"/>
+    <col min="21" max="21" width="14.5" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -801,74 +807,77 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -932,14 +941,15 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="Y6" s="4" t="s">
         <v>26</v>
       </c>

--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8EC175-4B13-7640-A358-B25330984B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECBBC46-D64B-6343-9823-C6DFA19B34A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -446,6 +446,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,7 +771,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -778,7 +780,7 @@
     <col min="2" max="2" width="29.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="18" customWidth="1"/>
     <col min="4" max="4" width="23" style="18" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -806,7 +808,7 @@
       <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -901,14 +903,12 @@
         <v>43</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
@@ -933,6 +933,9 @@
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>46</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">

--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECBBC46-D64B-6343-9823-C6DFA19B34A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E39F03E-684E-284C-BF3B-9E9F53D123BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="16320" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -771,7 +771,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E39F03E-684E-284C-BF3B-9E9F53D123BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374C398B-0E37-844F-B6DD-375C3AD888E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="16320" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>08-15 Feb</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>08-15 Mar</t>
+  </si>
+  <si>
+    <t>Theoretical foundations</t>
   </si>
 </sst>
 </file>
@@ -280,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -410,11 +413,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -448,6 +460,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47AE9FD-B171-A142-A593-808404ED4673}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -781,9 +797,9 @@
     <col min="3" max="3" width="19.6640625" style="18" customWidth="1"/>
     <col min="4" max="4" width="23" style="18" customWidth="1"/>
     <col min="5" max="5" width="19" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="18" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
@@ -811,7 +827,7 @@
       <c r="E1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -899,16 +915,15 @@
       <c r="E3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="27" t="s">
+      <c r="G3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="28"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
@@ -926,9 +941,16 @@
       <c r="E4" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>42</v>
       </c>
+      <c r="G4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
@@ -937,6 +959,11 @@
       <c r="E5" s="23" t="s">
         <v>54</v>
       </c>
+      <c r="H5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
@@ -948,11 +975,13 @@
       <c r="E6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="21"/>
       <c r="Y6" s="4" t="s">
         <v>26</v>
       </c>
@@ -961,10 +990,10 @@
       <c r="B7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="H7" s="29"/>
       <c r="Y7" s="5" t="s">
         <v>27</v>
       </c>

--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374C398B-0E37-844F-B6DD-375C3AD888E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8950E0-BC7B-164C-A0C2-D4AC37D2E8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="16320" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47AE9FD-B171-A142-A593-808404ED4673}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,6 +994,7 @@
         <v>45</v>
       </c>
       <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
       <c r="Y7" s="5" t="s">
         <v>27</v>
       </c>

--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8950E0-BC7B-164C-A0C2-D4AC37D2E8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627BB17D-C748-9040-8BB9-B4D706CC01F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
@@ -50,63 +50,9 @@
     <t>01-08 Mar</t>
   </si>
   <si>
-    <t>29-05 Mar</t>
-  </si>
-  <si>
     <t>15-22 Mar</t>
   </si>
   <si>
-    <t>22-29 Mar</t>
-  </si>
-  <si>
-    <t>05-12 Apr</t>
-  </si>
-  <si>
-    <t>12-19 Apr</t>
-  </si>
-  <si>
-    <t>19-26 Apr</t>
-  </si>
-  <si>
-    <t>26-03 Apr</t>
-  </si>
-  <si>
-    <t>03-10 May</t>
-  </si>
-  <si>
-    <t>10-17 May</t>
-  </si>
-  <si>
-    <t>17-24 May</t>
-  </si>
-  <si>
-    <t>24-31 May</t>
-  </si>
-  <si>
-    <t>07-14 Jun</t>
-  </si>
-  <si>
-    <t>14-21 Jun</t>
-  </si>
-  <si>
-    <t>21-28 Jun</t>
-  </si>
-  <si>
-    <t>28-05 Jun</t>
-  </si>
-  <si>
-    <t>05-12 Jul</t>
-  </si>
-  <si>
-    <t>12-19 Jul</t>
-  </si>
-  <si>
-    <t>19-26 Jul</t>
-  </si>
-  <si>
-    <t>31-07 May</t>
-  </si>
-  <si>
     <t>Thesis upload (06 Jul)</t>
   </si>
   <si>
@@ -210,6 +156,60 @@
   </si>
   <si>
     <t>Theoretical foundations</t>
+  </si>
+  <si>
+    <t>21-28 Mar</t>
+  </si>
+  <si>
+    <t>28-04 Mar</t>
+  </si>
+  <si>
+    <t>04-11 Apr</t>
+  </si>
+  <si>
+    <t>11-18 Apr</t>
+  </si>
+  <si>
+    <t>18-25 Apr</t>
+  </si>
+  <si>
+    <t>25-02 Apr</t>
+  </si>
+  <si>
+    <t>02-09 May</t>
+  </si>
+  <si>
+    <t>09-18 May</t>
+  </si>
+  <si>
+    <t>16-23 May</t>
+  </si>
+  <si>
+    <t>23-30 May</t>
+  </si>
+  <si>
+    <t>30-06 May</t>
+  </si>
+  <si>
+    <t>06-13 Jun</t>
+  </si>
+  <si>
+    <t>13-20 Jun</t>
+  </si>
+  <si>
+    <t>20-27 Jun</t>
+  </si>
+  <si>
+    <t>27-04 Jun</t>
+  </si>
+  <si>
+    <t>04-11 Jul</t>
+  </si>
+  <si>
+    <t>11-18 Jul</t>
+  </si>
+  <si>
+    <t>18-25 Jul</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -464,6 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47AE9FD-B171-A142-A593-808404ED4673}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,7 +799,7 @@
     <col min="4" max="4" width="23" style="18" customWidth="1"/>
     <col min="5" max="5" width="19" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="18" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" customWidth="1"/>
@@ -825,101 +826,101 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="K2" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
@@ -927,25 +928,25 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>57</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
@@ -954,76 +955,104 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="21"/>
       <c r="H6" s="24" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="21"/>
       <c r="Y6" s="4" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="Y7" s="5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="19" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="10" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="K8" s="12"/>
+      <c r="L8" s="33"/>
       <c r="Y8" s="9" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D9" s="18">
+        <v>13</v>
+      </c>
+      <c r="E9" s="18">
+        <v>26</v>
+      </c>
+      <c r="F9" s="18">
+        <v>39</v>
+      </c>
+      <c r="G9" s="18">
+        <v>52</v>
+      </c>
+      <c r="H9" s="18">
+        <v>65</v>
+      </c>
+      <c r="I9" s="18">
+        <v>78</v>
+      </c>
+      <c r="J9" s="18">
+        <v>91</v>
+      </c>
+      <c r="K9" s="18">
+        <v>104</v>
+      </c>
+      <c r="L9" s="18">
+        <v>117</v>
+      </c>
       <c r="Y9" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627BB17D-C748-9040-8BB9-B4D706CC01F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95873693-3B0D-4844-B0EF-F052520A1D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>08-15 Feb</t>
   </si>
@@ -134,13 +134,7 @@
     <t>Study selection</t>
   </si>
   <si>
-    <t>K-cores</t>
-  </si>
-  <si>
     <t>Assessing data items</t>
-  </si>
-  <si>
-    <t>Main path analysis</t>
   </si>
   <si>
     <t>Data items</t>
@@ -429,7 +423,6 @@
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -465,6 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,20 +781,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47AE9FD-B171-A142-A593-808404ED4673}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="23" style="18" customWidth="1"/>
-    <col min="5" max="5" width="19" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="23" style="17" customWidth="1"/>
+    <col min="5" max="5" width="19" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
@@ -813,245 +807,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="25"/>
+      <c r="G3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="28"/>
+      <c r="G4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="E5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="28"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="21"/>
-      <c r="Y6" s="4" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="20"/>
+      <c r="Y6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="Y7" s="5" t="s">
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="Y7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="10" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="33"/>
-      <c r="Y8" s="9" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="32"/>
+      <c r="Y8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>13</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>26</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>39</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>52</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>65</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <v>78</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <v>91</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="17">
         <v>104</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="17">
         <v>117</v>
       </c>
-      <c r="Y9" s="6" t="s">
+      <c r="Y9" s="5" t="s">
         <v>10</v>
       </c>
     </row>

--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95873693-3B0D-4844-B0EF-F052520A1D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21899A19-5D73-B24C-A660-D2620B47B59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
@@ -782,7 +782,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,7 +795,7 @@
     <col min="6" max="6" width="19.6640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" style="17" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" style="17" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" customWidth="1"/>
@@ -831,7 +831,7 @@
       <c r="H1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="16" t="s">
         <v>40</v>
       </c>
       <c r="J1" s="1" t="s">

--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21899A19-5D73-B24C-A660-D2620B47B59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DC4F43-50E3-224F-84F6-55B3CE23D3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
@@ -782,7 +782,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,7 +796,7 @@
     <col min="7" max="7" width="24.6640625" style="17" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="17" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" customWidth="1"/>
     <col min="19" max="19" width="20.1640625" customWidth="1"/>
@@ -834,7 +834,7 @@
       <c r="I1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="16" t="s">
         <v>41</v>
       </c>
       <c r="K1" s="1" t="s">

--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DC4F43-50E3-224F-84F6-55B3CE23D3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0340AA3-A993-244C-B49B-F335825ABEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47AE9FD-B171-A142-A593-808404ED4673}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,7 +797,7 @@
     <col min="8" max="8" width="24.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" style="17" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" customWidth="1"/>
     <col min="19" max="19" width="20.1640625" customWidth="1"/>
     <col min="21" max="21" width="14.5" customWidth="1"/>
@@ -837,7 +837,7 @@
       <c r="J1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="16" t="s">
         <v>42</v>
       </c>
       <c r="L1" s="1" t="s">

--- a/activities_calendar.xlsx
+++ b/activities_calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0340AA3-A993-244C-B49B-F335825ABEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160EF445-432C-8240-BE74-B122827C03B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
@@ -782,7 +782,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,6 +798,7 @@
     <col min="9" max="9" width="23.33203125" style="17" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" style="17" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="17"/>
     <col min="18" max="18" width="11.83203125" customWidth="1"/>
     <col min="19" max="19" width="20.1640625" customWidth="1"/>
     <col min="21" max="21" width="14.5" customWidth="1"/>
@@ -840,7 +841,7 @@
       <c r="K1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="16" t="s">
         <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
